--- a/obrazky_diz/tabulka_vysledky_iba_korelacie.xlsx
+++ b/obrazky_diz/tabulka_vysledky_iba_korelacie.xlsx
@@ -1962,7 +1962,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2019,13 +2019,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -2166,7 +2159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2229,59 +2222,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2590,874 +2571,870 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="31" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13" style="31" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="10" style="25" customWidth="1"/>
+    <col min="2" max="6" width="13.28515625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="32" t="s">
         <v>127</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>127</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="2" t="s">
         <v>130</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="7" t="s">
         <v>149</v>
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="2" t="s">
         <v>151</v>
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="2" t="s">
         <v>155</v>
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="2" t="s">
         <v>159</v>
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="2" t="s">
         <v>161</v>
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="2" t="s">
         <v>165</v>
       </c>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="2" t="s">
         <v>167</v>
       </c>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="2" t="s">
         <v>169</v>
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="8" t="s">
         <v>171</v>
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="2" t="s">
         <v>173</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="2" t="s">
         <v>179</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="2" t="s">
         <v>183</v>
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="2" t="s">
         <v>191</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="7" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="2" t="s">
         <v>199</v>
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="2" t="s">
         <v>201</v>
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="2" t="s">
         <v>203</v>
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="2" t="s">
         <v>205</v>
       </c>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="8" t="s">
         <v>207</v>
       </c>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="2" t="s">
         <v>209</v>
       </c>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="2" t="s">
         <v>211</v>
       </c>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="23" t="s">
         <v>215</v>
       </c>
       <c r="G48" s="2"/>
